--- a/SA 1/Week1/L2/01_02_logical_functions.xlsx
+++ b/SA 1/Week1/L2/01_02_logical_functions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5546" tabRatio="654"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5546" tabRatio="866" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IF functions 1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,8 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,13 +717,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,12 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2393,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2405,87 +2393,87 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="2:9" ht="25.3" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="50">
         <v>0.43</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>0.61</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>0.79</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>0.6</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="49">
         <f>AVERAGE(C6:G6)</f>
         <v>0.6</v>
       </c>
-      <c r="I6" s="23" t="b">
+      <c r="I6" s="21" t="b">
         <f>IF(H6&gt;=50,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2505,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2520,17 +2508,17 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:15" ht="32.15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="1"/>
@@ -2539,117 +2527,165 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>50</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="J4" s="36">
+      <c r="C4" s="25" t="str">
+        <f>IF(B4&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="J4" s="33">
         <v>20000</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="34">
+        <f>IF(J4&gt;=20000,J4*0.8,J4*0.3)</f>
+        <v>16000</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>49</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="J5" s="36">
+      <c r="C5" s="25" t="str">
+        <f t="shared" ref="C5:C10" si="0">IF(B5&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="J5" s="33">
         <v>20001</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="34">
+        <f t="shared" ref="K5:K8" si="1">IF(J5&gt;=20000,J5*0.8,J5*0.3)</f>
+        <v>16000.800000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>51</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="J6" s="36">
+      <c r="C6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="33">
         <v>19999</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="34">
+        <f t="shared" si="1"/>
+        <v>5999.7</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>55</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="J7" s="36">
+      <c r="C7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="33">
         <v>5000</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="34">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>45</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="J8" s="38">
+      <c r="C8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+      <c r="J8" s="35">
         <v>40000</v>
       </c>
-      <c r="K8" s="39"/>
+      <c r="K8" s="34">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>100</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:15" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="31" t="str">
+        <f>IF(C14="Male","12BY","12GL")</f>
+        <v>12GL</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="31" t="str">
+        <f t="shared" ref="D15:D17" si="2">IF(C15="Male","12BY","12GL")</f>
+        <v>12BY</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>12BY</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>12GL</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -2663,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2674,30 +2710,30 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2709,165 +2745,237 @@
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <v>34000</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="39">
         <v>40000</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="40">
+        <f>C6-D6</f>
+        <v>-6000</v>
+      </c>
+      <c r="F6" s="41" t="str">
+        <f>IF(E6&gt;=0,"Profit","Loss")</f>
+        <v>Loss</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <v>36000</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="39">
         <v>38000</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="40">
+        <f t="shared" ref="E7:E17" si="0">C7-D7</f>
+        <v>-2000</v>
+      </c>
+      <c r="F7" s="41" t="str">
+        <f t="shared" ref="F7:F17" si="1">IF(E7&gt;=0,"Profit","Loss")</f>
+        <v>Loss</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>38000</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="39">
         <v>36000</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F8" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="39">
         <v>40000</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="39">
         <v>34000</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="40">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="F9" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>31000</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="39">
         <v>32000</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="40">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="F10" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Loss</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <v>44000</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="39">
         <v>30000</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="E11" s="40">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="F11" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>46000</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="39">
         <v>47000</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="E12" s="40">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="F12" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Loss</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>48000</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>26000</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="40">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="F13" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>26000</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="39">
         <v>24000</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F14" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="39">
         <v>52000</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="39">
         <v>62000</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="40">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
+      </c>
+      <c r="F15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Loss</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="39">
         <v>54000</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="39">
         <v>20000</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="40">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="F16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="43">
         <v>56000</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="43">
         <v>56000</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>Profit</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -2884,7 +2992,7 @@
   <dimension ref="B4:E14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E7" sqref="E7:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2898,7 +3006,7 @@
   <sheetData>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="60" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2907,19 +3015,19 @@
       <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="72"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
@@ -2931,7 +3039,10 @@
       <c r="D7" s="13">
         <v>12.1</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="b">
+        <f>IF((OR(C7&lt;=12,D7&lt;=12)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
@@ -2943,7 +3054,10 @@
       <c r="D8" s="8">
         <v>12.1</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15" t="b">
+        <f t="shared" ref="E8:E13" si="0">IF((OR(C8&lt;=12,D8&lt;=12)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
@@ -2955,7 +3069,10 @@
       <c r="D9" s="8">
         <v>12.1</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
@@ -2967,7 +3084,10 @@
       <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
@@ -2979,7 +3099,10 @@
       <c r="D11" s="9">
         <v>12.4</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
@@ -2991,7 +3114,10 @@
       <c r="D12" s="9">
         <v>13</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10" t="s">
@@ -3003,7 +3129,10 @@
       <c r="D13" s="11">
         <v>11.9</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -3021,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3034,16 +3163,16 @@
   <sheetData>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="4"/>
@@ -3052,16 +3181,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="46" t="s">
         <v>45</v>
       </c>
       <c r="O3" s="4"/>
@@ -3071,107 +3200,131 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="K4" s="26" t="s">
+      <c r="D4" s="25" t="str">
+        <f>IF(OR(B4="A",C4="A"),"Distinction","")</f>
+        <v>Distinction</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="47">
         <v>4000</v>
       </c>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="N4" s="21">
+        <f t="shared" ref="N4:N6" si="0">IF(OR(L4="Menswear",M4&gt;=10000),M4*0.1,0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="K5" s="26" t="s">
+      <c r="D5" s="25" t="str">
+        <f t="shared" ref="D5:D7" si="1">IF(OR(B5="A",C5="A"),"Distinction","")</f>
+        <v>Distinction</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="47">
         <v>12000</v>
       </c>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="N5" s="21">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="K6" s="26" t="s">
+      <c r="D6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Distinction</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="47">
         <v>5000</v>
       </c>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
+      <c r="N6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="K7" s="28" t="s">
+      <c r="D7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="48">
         <v>120</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="21">
+        <f>IF(OR(L7="Menswear",M7&gt;=10000),M7*0.1,0)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4"/>
@@ -3192,52 +3345,64 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>49</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>49</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="25" t="str">
+        <f>IF(OR(B13&gt;=50,C13&gt;=50),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>50</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="30">
         <v>49</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="25" t="str">
+        <f t="shared" ref="D14:D16" si="2">IF(OR(B14&gt;=50,C14&gt;=50),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>49</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <v>50</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>50</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="32">
         <v>51</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -3251,14 +3416,14 @@
   <dimension ref="B4:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="60" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3267,19 +3432,19 @@
       <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="72"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
@@ -3291,7 +3456,10 @@
       <c r="D7" s="13">
         <v>12.1</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="b">
+        <f>IF(AND(C6&lt;=12,D6&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
@@ -3303,7 +3471,10 @@
       <c r="D8" s="8">
         <v>12.1</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15" t="b">
+        <f>IF(AND(C7&lt;=12,D7&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
@@ -3315,7 +3486,10 @@
       <c r="D9" s="8">
         <v>12.1</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15" t="b">
+        <f>IF(AND(C8&lt;=12,D8&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
@@ -3327,7 +3501,10 @@
       <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15" t="b">
+        <f>IF(AND(C9&lt;=12,D9&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
@@ -3339,7 +3516,10 @@
       <c r="D11" s="9">
         <v>12.4</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15" t="b">
+        <f>IF(AND(C10&lt;=12,D10&lt;=12),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
@@ -3351,7 +3531,10 @@
       <c r="D12" s="9">
         <v>13</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15" t="b">
+        <f>IF(AND(C11&lt;=12,D11&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10" t="s">
@@ -3363,7 +3546,10 @@
       <c r="D13" s="11">
         <v>11.9</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15" t="b">
+        <f>IF(AND(C12&lt;=12,D12&lt;=12),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -3380,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3392,16 +3578,16 @@
   <sheetData>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="46" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="4"/>
@@ -3410,16 +3596,16 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="46" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="4"/>
@@ -3429,106 +3615,130 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="L4" s="26" t="s">
+      <c r="E4" s="25" t="str">
+        <f>IF(AND(C4="A",D4="A"),"Distinction","")</f>
+        <v/>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="47">
         <v>4000</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="25">
+        <f>IF(AND(M4="Menswear",N4,N4,N4&gt;=10000),N4*0.5,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="L5" s="26" t="s">
+      <c r="E5" s="25" t="str">
+        <f t="shared" ref="E5:E7" si="0">IF(AND(C5="A",D5="A"),"Distinction","")</f>
+        <v/>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="47">
         <v>12000</v>
       </c>
-      <c r="O5" s="27"/>
+      <c r="O5" s="25">
+        <f t="shared" ref="O5:O7" si="1">IF(AND(M5="Menswear",N5,N5,N5&gt;=10000),N5*0.5,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="L6" s="26" t="s">
+      <c r="E6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Distinction</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="47">
         <v>5000</v>
       </c>
-      <c r="O6" s="27"/>
+      <c r="O6" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="L7" s="28" t="s">
+      <c r="E7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="48">
         <v>12000</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="25">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
     </row>
     <row r="8" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="46" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="4"/>
@@ -3548,52 +3758,64 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>49</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>50</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="25" t="str">
+        <f>IF(AND(C13&gt;=50,D13&gt;=50),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="30">
         <v>50</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>49</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="25" t="str">
+        <f t="shared" ref="E14:E16" si="2">IF(AND(C14&gt;=50,D14&gt;=50),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <v>50</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>50</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="32">
         <v>50</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>51</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>

--- a/SA 1/Week1/L2/01_02_logical_functions.xlsx
+++ b/SA 1/Week1/L2/01_02_logical_functions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitRepo\MUFYICT\SA 1\Week1\L2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\MUFYICT\SA 1\Week1\L2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5546" tabRatio="866" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5550" tabRatio="866" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IF functions 1" sheetId="1" r:id="rId1"/>
@@ -247,8 +247,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -336,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -643,13 +643,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -668,12 +692,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,6 +783,8 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,46 +2411,46 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.3046875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="2:9" ht="25.3" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="2:9" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -2478,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I4"/>
@@ -2497,17 +2523,17 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.3046875" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" customWidth="1"/>
-    <col min="4" max="4" width="10.15234375" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:15" ht="32.15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2552,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="24">
         <v>50</v>
       </c>
@@ -2542,7 +2568,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="24">
         <v>49</v>
       </c>
@@ -2558,7 +2584,7 @@
         <v>16000.800000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="24">
         <v>51</v>
       </c>
@@ -2574,7 +2600,7 @@
         <v>5999.7</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="24">
         <v>55</v>
       </c>
@@ -2590,7 +2616,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24">
         <v>45</v>
       </c>
@@ -2606,7 +2632,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>1</v>
       </c>
@@ -2615,7 +2641,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
         <v>100</v>
       </c>
@@ -2624,11 +2650,11 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:15" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:15" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
@@ -2651,7 +2677,7 @@
         <v>12GL</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2689,7 @@
         <v>12BY</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2701,7 @@
         <v>12BY</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
@@ -2687,7 +2713,7 @@
         <v>12GL</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2703,36 +2729,36 @@
       <selection activeCell="F6" sqref="F6:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="14.69140625" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
@@ -2749,7 +2775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>25</v>
       </c>
@@ -2768,7 +2794,7 @@
         <v>Loss</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>26</v>
       </c>
@@ -2787,7 +2813,7 @@
         <v>Loss</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>27</v>
       </c>
@@ -2806,7 +2832,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>28</v>
       </c>
@@ -2825,7 +2851,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
@@ -2844,7 +2870,7 @@
         <v>Loss</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2889,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2908,7 @@
         <v>Loss</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
         <v>32</v>
       </c>
@@ -2901,7 +2927,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2946,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
@@ -2939,7 +2965,7 @@
         <v>Loss</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>35</v>
       </c>
@@ -2958,7 +2984,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>36</v>
       </c>
@@ -2977,7 +3003,7 @@
         <v>Profit</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F4"/>
@@ -2991,22 +3017,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.69140625" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="60" t="s">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3015,21 +3041,21 @@
       <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="66"/>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
       <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="67"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>61</v>
       </c>
@@ -3044,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
@@ -3059,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
@@ -3074,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
@@ -3089,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
@@ -3104,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>67</v>
       </c>
@@ -3114,27 +3140,27 @@
       <c r="D12" s="9">
         <v>13</v>
       </c>
-      <c r="E12" s="15" t="b">
+      <c r="E12" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="11">
         <v>11.9</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="51">
         <v>11.9</v>
       </c>
-      <c r="E13" s="15" t="b">
+      <c r="E13" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B6"/>
@@ -3154,15 +3180,15 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="12" max="12" width="11.3828125" customWidth="1"/>
-    <col min="14" max="14" width="12.84375" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>40</v>
       </c>
@@ -3200,7 +3226,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>46</v>
       </c>
@@ -3228,7 +3254,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>50</v>
       </c>
@@ -3256,7 +3282,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>52</v>
       </c>
@@ -3284,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
@@ -3312,9 +3338,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>40</v>
       </c>
@@ -3344,7 +3370,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
@@ -3359,7 +3385,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>50</v>
       </c>
@@ -3374,7 +3400,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +3415,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>54</v>
       </c>
@@ -3404,7 +3430,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3419,11 +3445,11 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="60" t="s">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3432,21 +3458,21 @@
       <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="66"/>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
       <c r="C6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="67"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>61</v>
       </c>
@@ -3457,11 +3483,11 @@
         <v>12.1</v>
       </c>
       <c r="E7" s="15" t="b">
-        <f>IF(AND(C6&lt;=12,D6&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" ref="E7:E13" si="0">IF(AND(C6&lt;=12,D6&lt;=12),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
@@ -3472,11 +3498,11 @@
         <v>12.1</v>
       </c>
       <c r="E8" s="15" t="b">
-        <f>IF(AND(C7&lt;=12,D7&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
@@ -3487,11 +3513,11 @@
         <v>12.1</v>
       </c>
       <c r="E9" s="15" t="b">
-        <f>IF(AND(C8&lt;=12,D8&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
@@ -3502,11 +3528,11 @@
         <v>12</v>
       </c>
       <c r="E10" s="15" t="b">
-        <f>IF(AND(C9&lt;=12,D9&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
@@ -3517,11 +3543,11 @@
         <v>12.4</v>
       </c>
       <c r="E11" s="15" t="b">
-        <f>IF(AND(C10&lt;=12,D10&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>67</v>
       </c>
@@ -3532,11 +3558,11 @@
         <v>13</v>
       </c>
       <c r="E12" s="15" t="b">
-        <f>IF(AND(C11&lt;=12,D11&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
@@ -3547,11 +3573,11 @@
         <v>11.9</v>
       </c>
       <c r="E13" s="15" t="b">
-        <f>IF(AND(C12&lt;=12,D12&lt;=12),TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B6"/>
@@ -3566,18 +3592,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:20" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>40</v>
       </c>
@@ -3614,7 +3640,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
@@ -3642,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>52</v>
       </c>
@@ -3698,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
@@ -3726,9 +3752,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="2:20" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:20" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>40</v>
       </c>
@@ -3757,7 +3783,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>46</v>
       </c>
@@ -3772,7 +3798,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
@@ -3787,7 +3813,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
@@ -3802,7 +3828,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>54</v>
       </c>
@@ -3817,7 +3843,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
